--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Adm2-Calcrl.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Adm2-Calcrl.xlsx
@@ -531,16 +531,16 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.164869</v>
+        <v>0.28161</v>
       </c>
       <c r="H2">
-        <v>0.494607</v>
+        <v>0.84483</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>44.29099299999999</v>
+        <v>91.60947133333333</v>
       </c>
       <c r="N2">
-        <v>132.872979</v>
+        <v>274.828414</v>
       </c>
       <c r="O2">
-        <v>0.5386410749126281</v>
+        <v>0.7121576185577153</v>
       </c>
       <c r="P2">
-        <v>0.5386410749126281</v>
+        <v>0.7121576185577152</v>
       </c>
       <c r="Q2">
-        <v>7.302211724916998</v>
+        <v>25.79814322218</v>
       </c>
       <c r="R2">
-        <v>65.71990552425299</v>
+        <v>232.18328899962</v>
       </c>
       <c r="S2">
-        <v>0.5386410749126281</v>
+        <v>0.7121576185577153</v>
       </c>
       <c r="T2">
-        <v>0.5386410749126281</v>
+        <v>0.7121576185577152</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,16 +593,16 @@
         <v>23</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.164869</v>
+        <v>0.28161</v>
       </c>
       <c r="H3">
-        <v>0.494607</v>
+        <v>0.84483</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>22.83185066666666</v>
+        <v>22.83185066666667</v>
       </c>
       <c r="N3">
-        <v>68.49555199999999</v>
+        <v>68.495552</v>
       </c>
       <c r="O3">
-        <v>0.2776675742026813</v>
+        <v>0.1774912152792038</v>
       </c>
       <c r="P3">
-        <v>0.2776675742026813</v>
+        <v>0.1774912152792038</v>
       </c>
       <c r="Q3">
-        <v>3.764264387562666</v>
+        <v>6.429677466239999</v>
       </c>
       <c r="R3">
-        <v>33.87837948806399</v>
+        <v>57.86709719616</v>
       </c>
       <c r="S3">
-        <v>0.2776675742026813</v>
+        <v>0.1774912152792038</v>
       </c>
       <c r="T3">
-        <v>0.2776675742026813</v>
+        <v>0.1774912152792038</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,16 +655,16 @@
         <v>24</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.164869</v>
+        <v>0.28161</v>
       </c>
       <c r="H4">
-        <v>0.494607</v>
+        <v>0.84483</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>6.361398</v>
+        <v>7.077809999999999</v>
       </c>
       <c r="N4">
-        <v>19.084194</v>
+        <v>21.23343</v>
       </c>
       <c r="O4">
-        <v>0.0773635907568621</v>
+        <v>0.05502178149094856</v>
       </c>
       <c r="P4">
-        <v>0.07736359075686208</v>
+        <v>0.05502178149094855</v>
       </c>
       <c r="Q4">
-        <v>1.048797326862</v>
+        <v>1.9931820741</v>
       </c>
       <c r="R4">
-        <v>9.439175941758</v>
+        <v>17.9386386669</v>
       </c>
       <c r="S4">
-        <v>0.0773635907568621</v>
+        <v>0.05502178149094856</v>
       </c>
       <c r="T4">
-        <v>0.07736359075686208</v>
+        <v>0.05502178149094855</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,16 +717,16 @@
         <v>25</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.164869</v>
+        <v>0.28161</v>
       </c>
       <c r="H5">
-        <v>0.494607</v>
+        <v>0.84483</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>8.743043</v>
+        <v>7.117379</v>
       </c>
       <c r="N5">
-        <v>26.229129</v>
+        <v>21.352137</v>
       </c>
       <c r="O5">
-        <v>0.1063277601278285</v>
+        <v>0.05532938467213248</v>
       </c>
       <c r="P5">
-        <v>0.1063277601278285</v>
+        <v>0.05532938467213247</v>
       </c>
       <c r="Q5">
-        <v>1.441456756367</v>
+        <v>2.00432510019</v>
       </c>
       <c r="R5">
-        <v>12.973110807303</v>
+        <v>18.03892590171</v>
       </c>
       <c r="S5">
-        <v>0.1063277601278285</v>
+        <v>0.05532938467213248</v>
       </c>
       <c r="T5">
-        <v>0.1063277601278285</v>
+        <v>0.05532938467213247</v>
       </c>
     </row>
   </sheetData>
